--- a/data/compiled_results/facility_condition/Donated Data 2023 - Compiled Facility Conditions for DSI.xlsx
+++ b/data/compiled_results/facility_condition/Donated Data 2023 - Compiled Facility Conditions for DSI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecilia/2024-winter-compostable/data/compiled_results/facility_condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecilia/Documents/GitHub/2024-winter-compostable/data/compiled_results/facility_condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43747452-96A6-B344-BAAB-28DC1D93D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E3EF9-E660-3A4D-9B77-E98EE682B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="740" windowWidth="29400" windowHeight="16960" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -58,17 +58,91 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>======
-ID#AAABC6BzYXk
-tc={752D87FC-0653-4FF2-810A-F453CBB4E7AE}    (2024-01-10 19:53:10)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Values flagged in red do not match the appropriate formatting for that column. They've been left as-is since they're not critical for the data processing.</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABC6BzYXk
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={752D87FC-0653-4FF2-810A-F453CBB4E7AE}    (2024-01-10 19:53:10)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Values flagged in red do not match the appropriate formatting for that column. They've been left as-is since they're not critical for the data processing.</t>
         </r>
       </text>
     </comment>
@@ -1651,12 +1725,12 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6214,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8667,8 +8741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BJ1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11762,7 +11836,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12925,7 +12999,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12941,11 +13015,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -14140,8 +14214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20674,8 +20748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21088,7 +21162,7 @@
       <c r="K16" s="2"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="103" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23402,7 +23476,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
